--- a/WebContent/TODO/TODOリスト.xlsx
+++ b/WebContent/TODO/TODOリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>何かシステムに予期されないエラーが発生した場合にエラーページに遷移するような処理を行ってください。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,14 +127,6 @@
     <t>●</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>←</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次の作業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -165,13 +157,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,7 +189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +333,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:CE34"/>
+  <dimension ref="B1:CC34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -842,8 +845,8 @@
     <col min="82" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:83" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:83" ht="16.5" customHeight="1">
+    <row r="1" spans="2:81" ht="9.75" customHeight="1"/>
+    <row r="2" spans="2:81" ht="16.5" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -931,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:83" ht="37.5" customHeight="1">
+    <row r="3" spans="2:81" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1015,16 +1018,14 @@
       <c r="BY3" s="15"/>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="15"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>23</v>
+      <c r="CB3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:83">
+    <row r="4" spans="2:81">
       <c r="B4" s="4">
         <f t="shared" ref="B4:B34" si="0">ROW()-2</f>
         <v>2</v>
@@ -1115,94 +1116,94 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:83">
+    <row r="5" spans="2:81">
       <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5"/>
-      <c r="BT5" s="5"/>
-      <c r="BU5" s="5"/>
-      <c r="BV5" s="5"/>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="5"/>
-      <c r="BZ5" s="5"/>
-      <c r="CA5" s="5"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18"/>
+      <c r="BN5" s="18"/>
+      <c r="BO5" s="18"/>
+      <c r="BP5" s="18"/>
+      <c r="BQ5" s="18"/>
+      <c r="BR5" s="18"/>
+      <c r="BS5" s="18"/>
+      <c r="BT5" s="18"/>
+      <c r="BU5" s="18"/>
+      <c r="BV5" s="18"/>
+      <c r="BW5" s="18"/>
+      <c r="BX5" s="18"/>
+      <c r="BY5" s="18"/>
+      <c r="BZ5" s="18"/>
+      <c r="CA5" s="18"/>
       <c r="CB5" s="2"/>
       <c r="CC5" s="2"/>
     </row>
-    <row r="6" spans="2:83">
+    <row r="6" spans="2:81">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1293,7 +1294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:83">
+    <row r="7" spans="2:81">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1380,94 +1381,94 @@
       <c r="CB7" s="2"/>
       <c r="CC7" s="2"/>
     </row>
-    <row r="8" spans="2:83" ht="70.5" customHeight="1">
+    <row r="8" spans="2:81" ht="70.5" customHeight="1">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
-      <c r="BL8" s="5"/>
-      <c r="BM8" s="5"/>
-      <c r="BN8" s="5"/>
-      <c r="BO8" s="5"/>
-      <c r="BP8" s="5"/>
-      <c r="BQ8" s="5"/>
-      <c r="BR8" s="5"/>
-      <c r="BS8" s="5"/>
-      <c r="BT8" s="5"/>
-      <c r="BU8" s="5"/>
-      <c r="BV8" s="5"/>
-      <c r="BW8" s="5"/>
-      <c r="BX8" s="5"/>
-      <c r="BY8" s="5"/>
-      <c r="BZ8" s="5"/>
-      <c r="CA8" s="5"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18"/>
+      <c r="BK8" s="18"/>
+      <c r="BL8" s="18"/>
+      <c r="BM8" s="18"/>
+      <c r="BN8" s="18"/>
+      <c r="BO8" s="18"/>
+      <c r="BP8" s="18"/>
+      <c r="BQ8" s="18"/>
+      <c r="BR8" s="18"/>
+      <c r="BS8" s="18"/>
+      <c r="BT8" s="18"/>
+      <c r="BU8" s="18"/>
+      <c r="BV8" s="18"/>
+      <c r="BW8" s="18"/>
+      <c r="BX8" s="18"/>
+      <c r="BY8" s="18"/>
+      <c r="BZ8" s="18"/>
+      <c r="CA8" s="18"/>
       <c r="CB8" s="2"/>
       <c r="CC8" s="2"/>
     </row>
-    <row r="9" spans="2:83">
+    <row r="9" spans="2:81">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1551,10 +1552,12 @@
       <c r="BY9" s="5"/>
       <c r="BZ9" s="5"/>
       <c r="CA9" s="5"/>
-      <c r="CB9" s="2"/>
+      <c r="CB9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="CC9" s="2"/>
     </row>
-    <row r="10" spans="2:83" ht="37.5" customHeight="1">
+    <row r="10" spans="2:81" ht="37.5" customHeight="1">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1638,10 +1641,12 @@
       <c r="BY10" s="5"/>
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
-      <c r="CB10" s="2"/>
+      <c r="CB10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="CC10" s="2"/>
     </row>
-    <row r="11" spans="2:83" ht="36.75" customHeight="1">
+    <row r="11" spans="2:81" ht="36.75" customHeight="1">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1732,7 +1737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:83">
+    <row r="12" spans="2:81">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1823,7 +1828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:83" ht="61.5" customHeight="1">
+    <row r="13" spans="2:81" ht="61.5" customHeight="1">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1914,7 +1919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:83" ht="375" customHeight="1">
+    <row r="14" spans="2:81" ht="375" customHeight="1">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2005,7 +2010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:83" ht="198.75" customHeight="1">
+    <row r="15" spans="2:81" ht="198.75" customHeight="1">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2096,7 +2101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:83">
+    <row r="16" spans="2:81">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2187,7 +2192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:83" ht="119.25" customHeight="1">
+    <row r="17" spans="2:81" ht="119.25" customHeight="1">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2274,7 +2279,7 @@
       <c r="CB17" s="2"/>
       <c r="CC17" s="2"/>
     </row>
-    <row r="18" spans="2:83">
+    <row r="18" spans="2:81">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2358,16 +2363,12 @@
       <c r="BY18" s="10"/>
       <c r="BZ18" s="10"/>
       <c r="CA18" s="10"/>
-      <c r="CB18" s="2"/>
+      <c r="CB18" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="CC18" s="2"/>
-      <c r="CD18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CE18" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="19" spans="2:83" ht="36.75" customHeight="1">
+    <row r="19" spans="2:81" ht="36.75" customHeight="1">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2454,7 +2455,7 @@
       <c r="CB19" s="2"/>
       <c r="CC19" s="2"/>
     </row>
-    <row r="20" spans="2:83" ht="85.5" customHeight="1">
+    <row r="20" spans="2:81" ht="85.5" customHeight="1">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2541,7 +2542,7 @@
       <c r="CB20" s="2"/>
       <c r="CC20" s="2"/>
     </row>
-    <row r="21" spans="2:83">
+    <row r="21" spans="2:81">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2626,7 +2627,7 @@
       <c r="CB21" s="2"/>
       <c r="CC21" s="2"/>
     </row>
-    <row r="22" spans="2:83">
+    <row r="22" spans="2:81">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2711,7 +2712,7 @@
       <c r="CB22" s="2"/>
       <c r="CC22" s="2"/>
     </row>
-    <row r="23" spans="2:83">
+    <row r="23" spans="2:81">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2796,7 +2797,7 @@
       <c r="CB23" s="2"/>
       <c r="CC23" s="2"/>
     </row>
-    <row r="24" spans="2:83">
+    <row r="24" spans="2:81">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2881,7 +2882,7 @@
       <c r="CB24" s="2"/>
       <c r="CC24" s="2"/>
     </row>
-    <row r="25" spans="2:83">
+    <row r="25" spans="2:81">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2966,7 +2967,7 @@
       <c r="CB25" s="2"/>
       <c r="CC25" s="2"/>
     </row>
-    <row r="26" spans="2:83">
+    <row r="26" spans="2:81">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3051,7 +3052,7 @@
       <c r="CB26" s="2"/>
       <c r="CC26" s="2"/>
     </row>
-    <row r="27" spans="2:83">
+    <row r="27" spans="2:81">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3136,7 +3137,7 @@
       <c r="CB27" s="2"/>
       <c r="CC27" s="2"/>
     </row>
-    <row r="28" spans="2:83">
+    <row r="28" spans="2:81">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3221,7 +3222,7 @@
       <c r="CB28" s="2"/>
       <c r="CC28" s="2"/>
     </row>
-    <row r="29" spans="2:83">
+    <row r="29" spans="2:81">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3306,7 +3307,7 @@
       <c r="CB29" s="2"/>
       <c r="CC29" s="2"/>
     </row>
-    <row r="30" spans="2:83">
+    <row r="30" spans="2:81">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3391,7 +3392,7 @@
       <c r="CB30" s="2"/>
       <c r="CC30" s="2"/>
     </row>
-    <row r="31" spans="2:83">
+    <row r="31" spans="2:81">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3476,7 +3477,7 @@
       <c r="CB31" s="2"/>
       <c r="CC31" s="2"/>
     </row>
-    <row r="32" spans="2:83">
+    <row r="32" spans="2:81">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
